--- a/public/uploads/Untitled spreadsheet.xlsx
+++ b/public/uploads/Untitled spreadsheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -206,13 +206,166 @@
   </si>
   <si>
     <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=48</t>
+  </si>
+  <si>
+    <t>KM 7+000 A</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=49</t>
+  </si>
+  <si>
+    <t>KM 7+000 B</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=50</t>
+  </si>
+  <si>
+    <t>KM 5+800 A</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=45</t>
+  </si>
+  <si>
+    <t>KM 5+200 B</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=44</t>
+  </si>
+  <si>
+    <t>KM 5+200 A</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=43</t>
+  </si>
+  <si>
+    <t>KM 4+400 B</t>
+  </si>
+  <si>
+    <t>KM 4+400 A</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=39</t>
+  </si>
+  <si>
+    <t>Jalur Motor Benoa A</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=30</t>
+  </si>
+  <si>
+    <t>KM 3+400 A</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=27</t>
+  </si>
+  <si>
+    <t>KM 2+800 B</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=26</t>
+  </si>
+  <si>
+    <t>KM 2+400 A</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=24</t>
+  </si>
+  <si>
+    <t>KM 1+400 A</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=21</t>
+  </si>
+  <si>
+    <t>GT Nusa Dua</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=15</t>
+  </si>
+  <si>
+    <t>PTZ NGR - ND</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=23</t>
+  </si>
+  <si>
+    <t>KM 1+000 Ngr</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=19</t>
+  </si>
+  <si>
+    <t>PTZ ND - NGR</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=18</t>
+  </si>
+  <si>
+    <t>PTZ Jalur Motor</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=29</t>
+  </si>
+  <si>
+    <t>PTZ Interchange</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=34</t>
+  </si>
+  <si>
+    <t>Gardu Kancil</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=37</t>
+  </si>
+  <si>
+    <t>Jalur S</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=38</t>
+  </si>
+  <si>
+    <t>GT Benoa</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=11</t>
+  </si>
+  <si>
+    <t>Hadap GT Benoa</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=12</t>
+  </si>
+  <si>
+    <t>GT Ngurah Rai</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=13</t>
+  </si>
+  <si>
+    <t>Hadap GT Ngurah Rai</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=14</t>
+  </si>
+  <si>
+    <t>OnRamp Benoa</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=1</t>
+  </si>
+  <si>
+    <t>Ramp Benoa - NGR</t>
+  </si>
+  <si>
+    <t>https://jid.jasamargalive.com/jbt/nph-zms?scale=100&amp;width=640p&amp;height=480px&amp;mode=jpeg&amp;maxfps=15&amp;buffer=1000&amp;user=live&amp;pass=liataja&amp;monitor=7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -257,10 +410,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFF7981D"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <u/>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,7 +442,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -287,11 +458,41 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,7 +520,36 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -538,7 +768,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="2.75"/>
     <col customWidth="1" min="2" max="2" width="29.88"/>
-    <col customWidth="1" min="13" max="13" width="94.75"/>
+    <col customWidth="1" min="13" max="13" width="873.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1641,8 +1871,1071 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="11">
+        <v>-8.7364588</v>
+      </c>
+      <c r="L26" s="11">
+        <v>115.2017298</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="27">
-      <c r="I27" s="9"/>
+      <c r="A27" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-8.736568</v>
+      </c>
+      <c r="L27" s="15">
+        <v>115.2018059</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="15">
+        <v>-8.7445085</v>
+      </c>
+      <c r="L28" s="15">
+        <v>115.1960187</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-8.7500882</v>
+      </c>
+      <c r="L29" s="15">
+        <v>115.1956706</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-8.7501115</v>
+      </c>
+      <c r="L30" s="15">
+        <v>115.1955419</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-8.75723</v>
+      </c>
+      <c r="L31" s="15">
+        <v>115.1950876</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-8.7571601</v>
+      </c>
+      <c r="L32" s="15">
+        <v>115.1949678</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-8.75723</v>
+      </c>
+      <c r="L33" s="15">
+        <v>115.1950876</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-8.7571601</v>
+      </c>
+      <c r="L34" s="15">
+        <v>115.1949678</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-8.7703233</v>
+      </c>
+      <c r="L35" s="15">
+        <v>115.2000114</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-8.772737</v>
+      </c>
+      <c r="L36" s="15">
+        <v>115.2026197</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-8.7794222</v>
+      </c>
+      <c r="L37" s="15">
+        <v>115.2100323</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-8.7782191</v>
+      </c>
+      <c r="L38" s="15">
+        <v>115.2086674</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-8.741855</v>
+      </c>
+      <c r="L39" s="15">
+        <v>115.196444</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-8.744829</v>
+      </c>
+      <c r="L40" s="15">
+        <v>115.186795</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-8.778729</v>
+      </c>
+      <c r="L41" s="15">
+        <v>115.209238</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="15">
+        <v>-8.745586</v>
+      </c>
+      <c r="L42" s="15">
+        <v>115.196235</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="15">
+        <v>-8.744797</v>
+      </c>
+      <c r="L43" s="15">
+        <v>115.196035</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="15">
+        <v>-8.745562</v>
+      </c>
+      <c r="L44" s="15">
+        <v>115.1959</v>
+      </c>
+      <c r="M44" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="15">
+        <v>-8.745343</v>
+      </c>
+      <c r="L45" s="15">
+        <v>115.195863</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="4">
+        <v>-8.735089</v>
+      </c>
+      <c r="L46" s="4">
+        <v>115.208138</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3">
+        <v>46.0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="4">
+        <v>-8.734956</v>
+      </c>
+      <c r="L47" s="4">
+        <v>115.208641</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3">
+        <v>47.0</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="4">
+        <v>-8.744389</v>
+      </c>
+      <c r="L48" s="4">
+        <v>115.188188</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="4">
+        <v>-8.744573</v>
+      </c>
+      <c r="L49" s="4">
+        <v>115.187598</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="4">
+        <v>-8.732168</v>
+      </c>
+      <c r="L50" s="4">
+        <v>115.212185</v>
+      </c>
+      <c r="M50" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="4">
+        <v>-8.742199</v>
+      </c>
+      <c r="L51" s="4">
+        <v>115.196292</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1718,7 +3011,85 @@
     <hyperlink r:id="rId70" ref="G25"/>
     <hyperlink r:id="rId71" ref="H25"/>
     <hyperlink r:id="rId72" ref="M25"/>
+    <hyperlink r:id="rId73" ref="G26"/>
+    <hyperlink r:id="rId74" ref="H26"/>
+    <hyperlink r:id="rId75" ref="M26"/>
+    <hyperlink r:id="rId76" ref="G27"/>
+    <hyperlink r:id="rId77" ref="H27"/>
+    <hyperlink r:id="rId78" ref="M27"/>
+    <hyperlink r:id="rId79" ref="G28"/>
+    <hyperlink r:id="rId80" ref="H28"/>
+    <hyperlink r:id="rId81" ref="M28"/>
+    <hyperlink r:id="rId82" ref="G29"/>
+    <hyperlink r:id="rId83" ref="H29"/>
+    <hyperlink r:id="rId84" ref="M29"/>
+    <hyperlink r:id="rId85" ref="G30"/>
+    <hyperlink r:id="rId86" ref="H30"/>
+    <hyperlink r:id="rId87" ref="M30"/>
+    <hyperlink r:id="rId88" ref="G31"/>
+    <hyperlink r:id="rId89" ref="H31"/>
+    <hyperlink r:id="rId90" ref="M31"/>
+    <hyperlink r:id="rId91" ref="G32"/>
+    <hyperlink r:id="rId92" ref="H32"/>
+    <hyperlink r:id="rId93" ref="M32"/>
+    <hyperlink r:id="rId94" ref="G33"/>
+    <hyperlink r:id="rId95" ref="H33"/>
+    <hyperlink r:id="rId96" ref="M33"/>
+    <hyperlink r:id="rId97" ref="G34"/>
+    <hyperlink r:id="rId98" ref="H34"/>
+    <hyperlink r:id="rId99" ref="M34"/>
+    <hyperlink r:id="rId100" ref="G35"/>
+    <hyperlink r:id="rId101" ref="H35"/>
+    <hyperlink r:id="rId102" ref="M35"/>
+    <hyperlink r:id="rId103" ref="G36"/>
+    <hyperlink r:id="rId104" ref="H36"/>
+    <hyperlink r:id="rId105" ref="M36"/>
+    <hyperlink r:id="rId106" ref="G37"/>
+    <hyperlink r:id="rId107" ref="H37"/>
+    <hyperlink r:id="rId108" ref="M37"/>
+    <hyperlink r:id="rId109" ref="G38"/>
+    <hyperlink r:id="rId110" ref="H38"/>
+    <hyperlink r:id="rId111" ref="M38"/>
+    <hyperlink r:id="rId112" ref="G39"/>
+    <hyperlink r:id="rId113" ref="H39"/>
+    <hyperlink r:id="rId114" ref="M39"/>
+    <hyperlink r:id="rId115" ref="G40"/>
+    <hyperlink r:id="rId116" ref="H40"/>
+    <hyperlink r:id="rId117" ref="M40"/>
+    <hyperlink r:id="rId118" ref="G41"/>
+    <hyperlink r:id="rId119" ref="H41"/>
+    <hyperlink r:id="rId120" ref="M41"/>
+    <hyperlink r:id="rId121" ref="G42"/>
+    <hyperlink r:id="rId122" ref="H42"/>
+    <hyperlink r:id="rId123" ref="M42"/>
+    <hyperlink r:id="rId124" ref="G43"/>
+    <hyperlink r:id="rId125" ref="H43"/>
+    <hyperlink r:id="rId126" ref="M43"/>
+    <hyperlink r:id="rId127" ref="G44"/>
+    <hyperlink r:id="rId128" ref="H44"/>
+    <hyperlink r:id="rId129" ref="M44"/>
+    <hyperlink r:id="rId130" ref="G45"/>
+    <hyperlink r:id="rId131" ref="H45"/>
+    <hyperlink r:id="rId132" ref="M45"/>
+    <hyperlink r:id="rId133" ref="G46"/>
+    <hyperlink r:id="rId134" ref="H46"/>
+    <hyperlink r:id="rId135" ref="M46"/>
+    <hyperlink r:id="rId136" ref="G47"/>
+    <hyperlink r:id="rId137" ref="H47"/>
+    <hyperlink r:id="rId138" ref="M47"/>
+    <hyperlink r:id="rId139" ref="G48"/>
+    <hyperlink r:id="rId140" ref="H48"/>
+    <hyperlink r:id="rId141" ref="M48"/>
+    <hyperlink r:id="rId142" ref="G49"/>
+    <hyperlink r:id="rId143" ref="H49"/>
+    <hyperlink r:id="rId144" ref="M49"/>
+    <hyperlink r:id="rId145" ref="G50"/>
+    <hyperlink r:id="rId146" ref="H50"/>
+    <hyperlink r:id="rId147" ref="M50"/>
+    <hyperlink r:id="rId148" ref="G51"/>
+    <hyperlink r:id="rId149" ref="H51"/>
+    <hyperlink r:id="rId150" ref="M51"/>
   </hyperlinks>
-  <drawing r:id="rId73"/>
+  <drawing r:id="rId151"/>
 </worksheet>
 </file>